--- a/natmiOut/OldD0/LR-pairs_lrc2p/Itgav-Thy1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Itgav-Thy1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.0861304504934</v>
+        <v>21.09934133333334</v>
       </c>
       <c r="H2">
-        <v>17.0861304504934</v>
+        <v>63.29802400000001</v>
       </c>
       <c r="I2">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="J2">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.45732699815192</v>
+        <v>4.842817666666666</v>
       </c>
       <c r="N2">
-        <v>2.45732699815192</v>
+        <v>14.528453</v>
       </c>
       <c r="O2">
-        <v>0.04298764392559233</v>
+        <v>0.08128949930032948</v>
       </c>
       <c r="P2">
-        <v>0.04298764392559233</v>
+        <v>0.0812894993003295</v>
       </c>
       <c r="Q2">
-        <v>41.98620964994306</v>
+        <v>102.1802629640969</v>
       </c>
       <c r="R2">
-        <v>41.98620964994306</v>
+        <v>919.622366676872</v>
       </c>
       <c r="S2">
-        <v>0.01080198696439826</v>
+        <v>0.02371406703761016</v>
       </c>
       <c r="T2">
-        <v>0.01080198696439826</v>
+        <v>0.02371406703761016</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.0861304504934</v>
+        <v>21.09934133333334</v>
       </c>
       <c r="H3">
-        <v>17.0861304504934</v>
+        <v>63.29802400000001</v>
       </c>
       <c r="I3">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="J3">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>38.1014750782886</v>
+        <v>38.12230933333333</v>
       </c>
       <c r="N3">
-        <v>38.1014750782886</v>
+        <v>114.366928</v>
       </c>
       <c r="O3">
-        <v>0.6665342646449208</v>
+        <v>0.6399050410691925</v>
       </c>
       <c r="P3">
-        <v>0.6665342646449208</v>
+        <v>0.6399050410691927</v>
       </c>
       <c r="Q3">
-        <v>651.0067735438622</v>
+        <v>804.3556170389191</v>
       </c>
       <c r="R3">
-        <v>651.0067735438622</v>
+        <v>7239.200553350272</v>
       </c>
       <c r="S3">
-        <v>0.1674875331730571</v>
+        <v>0.1866754153024781</v>
       </c>
       <c r="T3">
-        <v>0.1674875331730571</v>
+        <v>0.1866754153024782</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.0861304504934</v>
+        <v>21.09934133333334</v>
       </c>
       <c r="H4">
-        <v>17.0861304504934</v>
+        <v>63.29802400000001</v>
       </c>
       <c r="I4">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="J4">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.604763398451</v>
+        <v>16.60982066666667</v>
       </c>
       <c r="N4">
-        <v>16.604763398451</v>
+        <v>49.82946200000001</v>
       </c>
       <c r="O4">
-        <v>0.2904780914294869</v>
+        <v>0.2788054596304779</v>
       </c>
       <c r="P4">
-        <v>0.2904780914294869</v>
+        <v>0.2788054596304779</v>
       </c>
       <c r="Q4">
-        <v>283.7111535255119</v>
+        <v>350.4562757314543</v>
       </c>
       <c r="R4">
-        <v>283.7111535255119</v>
+        <v>3154.106481583089</v>
       </c>
       <c r="S4">
-        <v>0.07299168483147725</v>
+        <v>0.08133413807485546</v>
       </c>
       <c r="T4">
-        <v>0.07299168483147725</v>
+        <v>0.08133413807485548</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>35.6227143546858</v>
+        <v>35.81943766666667</v>
       </c>
       <c r="H5">
-        <v>35.6227143546858</v>
+        <v>107.458313</v>
       </c>
       <c r="I5">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="J5">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.45732699815192</v>
+        <v>4.842817666666666</v>
       </c>
       <c r="N5">
-        <v>2.45732699815192</v>
+        <v>14.528453</v>
       </c>
       <c r="O5">
-        <v>0.04298764392559233</v>
+        <v>0.08128949930032948</v>
       </c>
       <c r="P5">
-        <v>0.04298764392559233</v>
+        <v>0.0812894993003295</v>
       </c>
       <c r="Q5">
-        <v>87.53665773122336</v>
+        <v>173.4670055421988</v>
       </c>
       <c r="R5">
-        <v>87.53665773122336</v>
+        <v>1561.203049879789</v>
       </c>
       <c r="S5">
-        <v>0.02252096208739217</v>
+        <v>0.04025834421356494</v>
       </c>
       <c r="T5">
-        <v>0.02252096208739217</v>
+        <v>0.04025834421356495</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>35.6227143546858</v>
+        <v>35.81943766666667</v>
       </c>
       <c r="H6">
-        <v>35.6227143546858</v>
+        <v>107.458313</v>
       </c>
       <c r="I6">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="J6">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>38.1014750782886</v>
+        <v>38.12230933333333</v>
       </c>
       <c r="N6">
-        <v>38.1014750782886</v>
+        <v>114.366928</v>
       </c>
       <c r="O6">
-        <v>0.6665342646449208</v>
+        <v>0.6399050410691925</v>
       </c>
       <c r="P6">
-        <v>0.6665342646449208</v>
+        <v>0.6399050410691927</v>
       </c>
       <c r="Q6">
-        <v>1357.277963206054</v>
+        <v>1365.519682874718</v>
       </c>
       <c r="R6">
-        <v>1357.277963206054</v>
+        <v>12289.67714587247</v>
       </c>
       <c r="S6">
-        <v>0.3491931990969017</v>
+        <v>0.3169107649707783</v>
       </c>
       <c r="T6">
-        <v>0.3491931990969017</v>
+        <v>0.3169107649707784</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>35.6227143546858</v>
+        <v>35.81943766666667</v>
       </c>
       <c r="H7">
-        <v>35.6227143546858</v>
+        <v>107.458313</v>
       </c>
       <c r="I7">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="J7">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.604763398451</v>
+        <v>16.60982066666667</v>
       </c>
       <c r="N7">
-        <v>16.604763398451</v>
+        <v>49.82946200000001</v>
       </c>
       <c r="O7">
-        <v>0.2904780914294869</v>
+        <v>0.2788054596304779</v>
       </c>
       <c r="P7">
-        <v>0.2904780914294869</v>
+        <v>0.2788054596304779</v>
       </c>
       <c r="Q7">
-        <v>591.5067434701617</v>
+        <v>594.9544360241784</v>
       </c>
       <c r="R7">
-        <v>591.5067434701617</v>
+        <v>5354.589924217606</v>
       </c>
       <c r="S7">
-        <v>0.1521796843675556</v>
+        <v>0.1380774424622329</v>
       </c>
       <c r="T7">
-        <v>0.1521796843675556</v>
+        <v>0.1380774424622329</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.2872094663922</v>
+        <v>15.40769666666667</v>
       </c>
       <c r="H8">
-        <v>15.2872094663922</v>
+        <v>46.22309</v>
       </c>
       <c r="I8">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="J8">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.45732699815192</v>
+        <v>4.842817666666666</v>
       </c>
       <c r="N8">
-        <v>2.45732699815192</v>
+        <v>14.528453</v>
       </c>
       <c r="O8">
-        <v>0.04298764392559233</v>
+        <v>0.08128949930032948</v>
       </c>
       <c r="P8">
-        <v>0.04298764392559233</v>
+        <v>0.0812894993003295</v>
       </c>
       <c r="Q8">
-        <v>37.56567254816916</v>
+        <v>74.61666561997443</v>
       </c>
       <c r="R8">
-        <v>37.56567254816916</v>
+        <v>671.5499905797699</v>
       </c>
       <c r="S8">
-        <v>0.009664694873801906</v>
+        <v>0.01731708804915439</v>
       </c>
       <c r="T8">
-        <v>0.009664694873801906</v>
+        <v>0.01731708804915439</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.2872094663922</v>
+        <v>15.40769666666667</v>
       </c>
       <c r="H9">
-        <v>15.2872094663922</v>
+        <v>46.22309</v>
       </c>
       <c r="I9">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="J9">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>38.1014750782886</v>
+        <v>38.12230933333333</v>
       </c>
       <c r="N9">
-        <v>38.1014750782886</v>
+        <v>114.366928</v>
       </c>
       <c r="O9">
-        <v>0.6665342646449208</v>
+        <v>0.6399050410691925</v>
       </c>
       <c r="P9">
-        <v>0.6665342646449208</v>
+        <v>0.6399050410691927</v>
       </c>
       <c r="Q9">
-        <v>582.46523050032</v>
+        <v>587.3769784408355</v>
       </c>
       <c r="R9">
-        <v>582.46523050032</v>
+        <v>5286.39280596752</v>
       </c>
       <c r="S9">
-        <v>0.149853532374962</v>
+        <v>0.1363188607959361</v>
       </c>
       <c r="T9">
-        <v>0.149853532374962</v>
+        <v>0.1363188607959362</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.2872094663922</v>
+        <v>15.40769666666667</v>
       </c>
       <c r="H10">
-        <v>15.2872094663922</v>
+        <v>46.22309</v>
       </c>
       <c r="I10">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="J10">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.604763398451</v>
+        <v>16.60982066666667</v>
       </c>
       <c r="N10">
-        <v>16.604763398451</v>
+        <v>49.82946200000001</v>
       </c>
       <c r="O10">
-        <v>0.2904780914294869</v>
+        <v>0.2788054596304779</v>
       </c>
       <c r="P10">
-        <v>0.2904780914294869</v>
+        <v>0.2788054596304779</v>
       </c>
       <c r="Q10">
-        <v>253.8404962120028</v>
+        <v>255.9190785197311</v>
       </c>
       <c r="R10">
-        <v>253.8404962120028</v>
+        <v>2303.27170667758</v>
       </c>
       <c r="S10">
-        <v>0.06530672223045404</v>
+        <v>0.05939387909338956</v>
       </c>
       <c r="T10">
-        <v>0.06530672223045404</v>
+        <v>0.05939387909338957</v>
       </c>
     </row>
   </sheetData>
